--- a/SchemeHIBME/SchemeHIBME.xlsx
+++ b/SchemeHIBME/SchemeHIBME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:AA100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,31 +595,31 @@
         <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I2" t="n">
         <v>20</v>
       </c>
       <c r="J2" t="n">
-        <v>0.032102679</v>
+        <v>0.031216516</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001427723</v>
+        <v>0.00138618</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002392185</v>
+        <v>0.002321224</v>
       </c>
       <c r="M2" t="n">
-        <v>0.115094324</v>
+        <v>0.109105416</v>
       </c>
       <c r="N2" t="n">
-        <v>0.168414185</v>
+        <v>0.160235303</v>
       </c>
       <c r="O2" t="n">
-        <v>0.107333358</v>
+        <v>0.104161006</v>
       </c>
       <c r="P2" t="n">
-        <v>0.07845822600000001</v>
+        <v>0.082444841</v>
       </c>
       <c r="Q2" t="n">
         <v>30</v>
@@ -680,31 +680,31 @@
         <v>20</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I3" t="n">
         <v>20</v>
       </c>
       <c r="J3" t="n">
-        <v>0.042874328</v>
+        <v>0.040977874</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001417299</v>
+        <v>0.001395852</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002522895</v>
+        <v>0.002305915</v>
       </c>
       <c r="M3" t="n">
-        <v>0.152584026</v>
+        <v>0.147341163</v>
       </c>
       <c r="N3" t="n">
-        <v>0.231286637</v>
+        <v>0.217576413</v>
       </c>
       <c r="O3" t="n">
-        <v>0.113330108</v>
+        <v>0.106024791</v>
       </c>
       <c r="P3" t="n">
-        <v>0.082648294</v>
+        <v>0.076280625</v>
       </c>
       <c r="Q3" t="n">
         <v>30</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.043493109</v>
+        <v>0.041674213</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00284603</v>
+        <v>0.002774155</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005091569</v>
+        <v>0.00486723</v>
       </c>
       <c r="M4" t="n">
-        <v>0.158778903</v>
+        <v>0.154056521</v>
       </c>
       <c r="N4" t="n">
-        <v>0.231585405</v>
+        <v>0.227557741</v>
       </c>
       <c r="O4" t="n">
-        <v>0.275716331</v>
+        <v>0.266155898</v>
       </c>
       <c r="P4" t="n">
-        <v>0.173541307</v>
+        <v>0.159379181</v>
       </c>
       <c r="Q4" t="n">
         <v>30</v>
@@ -856,25 +856,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.043302805</v>
+        <v>0.042364765</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001455871</v>
+        <v>0.001412089</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002405086</v>
+        <v>0.002334291</v>
       </c>
       <c r="M5" t="n">
-        <v>0.168306586</v>
+        <v>0.163640042</v>
       </c>
       <c r="N5" t="n">
-        <v>0.229760117</v>
+        <v>0.229103577</v>
       </c>
       <c r="O5" t="n">
-        <v>0.316906402</v>
+        <v>0.322560624</v>
       </c>
       <c r="P5" t="n">
-        <v>0.170008682</v>
+        <v>0.16068835</v>
       </c>
       <c r="Q5" t="n">
         <v>30</v>
@@ -935,31 +935,31 @@
         <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I6" t="n">
         <v>20</v>
       </c>
       <c r="J6" t="n">
-        <v>0.044213821</v>
+        <v>0.041527669</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002822793</v>
+        <v>0.002694025</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005074203</v>
+        <v>0.004813429</v>
       </c>
       <c r="M6" t="n">
-        <v>0.172825779</v>
+        <v>0.161282887</v>
       </c>
       <c r="N6" t="n">
-        <v>0.232174627</v>
+        <v>0.221277908</v>
       </c>
       <c r="O6" t="n">
-        <v>0.218498608</v>
+        <v>0.204873404</v>
       </c>
       <c r="P6" t="n">
-        <v>0.166397996</v>
+        <v>0.1540885</v>
       </c>
       <c r="Q6" t="n">
         <v>30</v>
@@ -1020,31 +1020,31 @@
         <v>20</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I7" t="n">
         <v>20</v>
       </c>
       <c r="J7" t="n">
-        <v>0.053984799</v>
+        <v>0.053356003</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001427143</v>
+        <v>0.001404597</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002377328</v>
+        <v>0.002350334</v>
       </c>
       <c r="M7" t="n">
-        <v>0.198815629</v>
+        <v>0.190322098</v>
       </c>
       <c r="N7" t="n">
-        <v>0.304214835</v>
+        <v>0.287474845</v>
       </c>
       <c r="O7" t="n">
-        <v>0.110572469</v>
+        <v>0.10599219</v>
       </c>
       <c r="P7" t="n">
-        <v>0.091825853</v>
+        <v>0.084767575</v>
       </c>
       <c r="Q7" t="n">
         <v>30</v>
@@ -1111,25 +1111,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.055478069</v>
+        <v>0.052412362</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002881745</v>
+        <v>0.002714726</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00513141</v>
+        <v>0.00488491</v>
       </c>
       <c r="M8" t="n">
-        <v>0.204486136</v>
+        <v>0.186872418</v>
       </c>
       <c r="N8" t="n">
-        <v>0.299563042</v>
+        <v>0.289584376</v>
       </c>
       <c r="O8" t="n">
-        <v>0.289277871</v>
+        <v>0.264724181</v>
       </c>
       <c r="P8" t="n">
-        <v>0.174618245</v>
+        <v>0.163763218</v>
       </c>
       <c r="Q8" t="n">
         <v>30</v>
@@ -1196,25 +1196,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.053854707</v>
+        <v>0.053145692</v>
       </c>
       <c r="K9" t="n">
-        <v>0.004266699</v>
+        <v>0.004096797</v>
       </c>
       <c r="L9" t="n">
-        <v>0.007546626</v>
+        <v>0.007452951</v>
       </c>
       <c r="M9" t="n">
-        <v>0.19724138</v>
+        <v>0.195890385</v>
       </c>
       <c r="N9" t="n">
-        <v>0.287608759</v>
+        <v>0.28874017</v>
       </c>
       <c r="O9" t="n">
-        <v>0.367241785</v>
+        <v>0.383682849</v>
       </c>
       <c r="P9" t="n">
-        <v>0.260797311</v>
+        <v>0.260799225</v>
       </c>
       <c r="Q9" t="n">
         <v>30</v>
@@ -1281,25 +1281,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.052471594</v>
+        <v>0.052168351</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001379444</v>
+        <v>0.001380973</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00236711</v>
+        <v>0.002321258</v>
       </c>
       <c r="M10" t="n">
-        <v>0.201280515</v>
+        <v>0.198660685</v>
       </c>
       <c r="N10" t="n">
-        <v>0.285756154</v>
+        <v>0.288463833</v>
       </c>
       <c r="O10" t="n">
-        <v>0.324168245</v>
+        <v>0.312677158</v>
       </c>
       <c r="P10" t="n">
-        <v>0.15886815</v>
+        <v>0.154415143</v>
       </c>
       <c r="Q10" t="n">
         <v>30</v>
@@ -1360,31 +1360,31 @@
         <v>20</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I11" t="n">
         <v>20</v>
       </c>
       <c r="J11" t="n">
-        <v>0.053282104</v>
+        <v>0.052034586</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002833849</v>
+        <v>0.002736546</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005001842</v>
+        <v>0.004955762</v>
       </c>
       <c r="M11" t="n">
-        <v>0.20277493</v>
+        <v>0.204508516</v>
       </c>
       <c r="N11" t="n">
-        <v>0.290930062</v>
+        <v>0.28743384</v>
       </c>
       <c r="O11" t="n">
-        <v>0.206664731</v>
+        <v>0.203413148</v>
       </c>
       <c r="P11" t="n">
-        <v>0.164436796</v>
+        <v>0.155365074</v>
       </c>
       <c r="Q11" t="n">
         <v>30</v>
@@ -1451,25 +1451,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.053386971</v>
+        <v>0.052163347</v>
       </c>
       <c r="K12" t="n">
-        <v>0.004154603</v>
+        <v>0.004079038</v>
       </c>
       <c r="L12" t="n">
-        <v>0.007604038</v>
+        <v>0.007423017</v>
       </c>
       <c r="M12" t="n">
-        <v>0.205454491</v>
+        <v>0.203077279</v>
       </c>
       <c r="N12" t="n">
-        <v>0.29304718</v>
+        <v>0.289721442</v>
       </c>
       <c r="O12" t="n">
-        <v>0.441739823</v>
+        <v>0.429697412</v>
       </c>
       <c r="P12" t="n">
-        <v>0.245443622</v>
+        <v>0.24247558</v>
       </c>
       <c r="Q12" t="n">
         <v>30</v>
@@ -1536,25 +1536,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.053469069</v>
+        <v>0.052399826</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001537378</v>
+        <v>0.001433814</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00246645</v>
+        <v>0.00238504</v>
       </c>
       <c r="M13" t="n">
-        <v>0.213527673</v>
+        <v>0.214275405</v>
       </c>
       <c r="N13" t="n">
-        <v>0.293329831</v>
+        <v>0.289803771</v>
       </c>
       <c r="O13" t="n">
-        <v>0.479051313</v>
+        <v>0.471357515</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2438816</v>
+        <v>0.227911045</v>
       </c>
       <c r="Q13" t="n">
         <v>30</v>
@@ -1621,25 +1621,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.053466435</v>
+        <v>0.053266692</v>
       </c>
       <c r="K14" t="n">
-        <v>0.00278465</v>
+        <v>0.002821777</v>
       </c>
       <c r="L14" t="n">
-        <v>0.005013826</v>
+        <v>0.004976621</v>
       </c>
       <c r="M14" t="n">
-        <v>0.221232491</v>
+        <v>0.216374095</v>
       </c>
       <c r="N14" t="n">
-        <v>0.297164258</v>
+        <v>0.287381809</v>
       </c>
       <c r="O14" t="n">
-        <v>0.486215945</v>
+        <v>0.481606682</v>
       </c>
       <c r="P14" t="n">
-        <v>0.245268835</v>
+        <v>0.24085135</v>
       </c>
       <c r="Q14" t="n">
         <v>30</v>
@@ -1700,31 +1700,31 @@
         <v>20</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I15" t="n">
         <v>20</v>
       </c>
       <c r="J15" t="n">
-        <v>0.052891694</v>
+        <v>0.051986786</v>
       </c>
       <c r="K15" t="n">
-        <v>0.00416244</v>
+        <v>0.004116196</v>
       </c>
       <c r="L15" t="n">
-        <v>0.007700584</v>
+        <v>0.007387585</v>
       </c>
       <c r="M15" t="n">
-        <v>0.219082566</v>
+        <v>0.217639031</v>
       </c>
       <c r="N15" t="n">
-        <v>0.284354258</v>
+        <v>0.279202092</v>
       </c>
       <c r="O15" t="n">
-        <v>0.31330844</v>
+        <v>0.296546596</v>
       </c>
       <c r="P15" t="n">
-        <v>0.253112946</v>
+        <v>0.237200002</v>
       </c>
       <c r="Q15" t="n">
         <v>30</v>
@@ -1785,31 +1785,31 @@
         <v>20</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I16" t="n">
         <v>20</v>
       </c>
       <c r="J16" t="n">
-        <v>0.064265826</v>
+        <v>0.06408649800000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0013926</v>
+        <v>0.001426894</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002382538</v>
+        <v>0.002382371</v>
       </c>
       <c r="M16" t="n">
-        <v>0.235971338</v>
+        <v>0.235283883</v>
       </c>
       <c r="N16" t="n">
-        <v>0.360397843</v>
+        <v>0.351152874</v>
       </c>
       <c r="O16" t="n">
-        <v>0.109302083</v>
+        <v>0.104961253</v>
       </c>
       <c r="P16" t="n">
-        <v>0.081682817</v>
+        <v>0.08200950799999999</v>
       </c>
       <c r="Q16" t="n">
         <v>30</v>
@@ -1876,25 +1876,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.06572015</v>
+        <v>0.062311143</v>
       </c>
       <c r="K17" t="n">
-        <v>0.002821436</v>
+        <v>0.002742314</v>
       </c>
       <c r="L17" t="n">
-        <v>0.005052615</v>
+        <v>0.00493556</v>
       </c>
       <c r="M17" t="n">
-        <v>0.241939047</v>
+        <v>0.232318294</v>
       </c>
       <c r="N17" t="n">
-        <v>0.366301717</v>
+        <v>0.343523191</v>
       </c>
       <c r="O17" t="n">
-        <v>0.285277438</v>
+        <v>0.267409729</v>
       </c>
       <c r="P17" t="n">
-        <v>0.173434266</v>
+        <v>0.164810216</v>
       </c>
       <c r="Q17" t="n">
         <v>30</v>
@@ -1961,25 +1961,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.065305739</v>
+        <v>0.063063175</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0043189</v>
+        <v>0.00422346</v>
       </c>
       <c r="L18" t="n">
-        <v>0.007622504</v>
+        <v>0.007626554</v>
       </c>
       <c r="M18" t="n">
-        <v>0.240277683</v>
+        <v>0.238100032</v>
       </c>
       <c r="N18" t="n">
-        <v>0.359893059</v>
+        <v>0.355494993</v>
       </c>
       <c r="O18" t="n">
-        <v>0.375633885</v>
+        <v>0.36920711</v>
       </c>
       <c r="P18" t="n">
-        <v>0.271481133</v>
+        <v>0.252578324</v>
       </c>
       <c r="Q18" t="n">
         <v>30</v>
@@ -2046,25 +2046,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.063852748</v>
+        <v>0.063263984</v>
       </c>
       <c r="K19" t="n">
-        <v>0.005566106</v>
+        <v>0.005589865</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01019407</v>
+        <v>0.010049382</v>
       </c>
       <c r="M19" t="n">
-        <v>0.237342951</v>
+        <v>0.236571682</v>
       </c>
       <c r="N19" t="n">
-        <v>0.355841233</v>
+        <v>0.351221371</v>
       </c>
       <c r="O19" t="n">
-        <v>0.485848424</v>
+        <v>0.473885398</v>
       </c>
       <c r="P19" t="n">
-        <v>0.34957255</v>
+        <v>0.33319327</v>
       </c>
       <c r="Q19" t="n">
         <v>30</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.063720659</v>
+        <v>0.063739859</v>
       </c>
       <c r="K20" t="n">
-        <v>0.001391267</v>
+        <v>0.001406922</v>
       </c>
       <c r="L20" t="n">
-        <v>0.002376743</v>
+        <v>0.00235363</v>
       </c>
       <c r="M20" t="n">
-        <v>0.248726924</v>
+        <v>0.245310471</v>
       </c>
       <c r="N20" t="n">
-        <v>0.35522395</v>
+        <v>0.357999584</v>
       </c>
       <c r="O20" t="n">
-        <v>0.334528837</v>
+        <v>0.338774373</v>
       </c>
       <c r="P20" t="n">
-        <v>0.153609923</v>
+        <v>0.169005977</v>
       </c>
       <c r="Q20" t="n">
         <v>30</v>
@@ -2210,31 +2210,31 @@
         <v>20</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
         <v>20</v>
       </c>
       <c r="J21" t="n">
-        <v>0.06360586</v>
+        <v>0.06387522800000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.00280682</v>
+        <v>0.002786078</v>
       </c>
       <c r="L21" t="n">
-        <v>0.005027346</v>
+        <v>0.005059608</v>
       </c>
       <c r="M21" t="n">
-        <v>0.243657764</v>
+        <v>0.251299362</v>
       </c>
       <c r="N21" t="n">
-        <v>0.353350318</v>
+        <v>0.356239184</v>
       </c>
       <c r="O21" t="n">
-        <v>0.209486611</v>
+        <v>0.207809884</v>
       </c>
       <c r="P21" t="n">
-        <v>0.162924963</v>
+        <v>0.166439881</v>
       </c>
       <c r="Q21" t="n">
         <v>30</v>
@@ -2301,25 +2301,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.067098851</v>
+        <v>0.063076491</v>
       </c>
       <c r="K22" t="n">
-        <v>0.004327076</v>
+        <v>0.00418472</v>
       </c>
       <c r="L22" t="n">
-        <v>0.007798551</v>
+        <v>0.007725093</v>
       </c>
       <c r="M22" t="n">
-        <v>0.255842272</v>
+        <v>0.242841323</v>
       </c>
       <c r="N22" t="n">
-        <v>0.368014845</v>
+        <v>0.352211426</v>
       </c>
       <c r="O22" t="n">
-        <v>0.450466</v>
+        <v>0.433181897</v>
       </c>
       <c r="P22" t="n">
-        <v>0.260909645</v>
+        <v>0.249015815</v>
       </c>
       <c r="Q22" t="n">
         <v>30</v>
@@ -2386,25 +2386,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.065496155</v>
+        <v>0.063416046</v>
       </c>
       <c r="K23" t="n">
-        <v>0.005744457</v>
+        <v>0.005457798</v>
       </c>
       <c r="L23" t="n">
-        <v>0.010551474</v>
+        <v>0.010028195</v>
       </c>
       <c r="M23" t="n">
-        <v>0.264311585</v>
+        <v>0.248172871</v>
       </c>
       <c r="N23" t="n">
-        <v>0.366960472</v>
+        <v>0.348816602</v>
       </c>
       <c r="O23" t="n">
-        <v>0.557463242</v>
+        <v>0.549503258</v>
       </c>
       <c r="P23" t="n">
-        <v>0.342638168</v>
+        <v>0.333918403</v>
       </c>
       <c r="Q23" t="n">
         <v>30</v>
@@ -2471,25 +2471,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.064302467</v>
+        <v>0.06347216999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.001417775</v>
+        <v>0.001396944</v>
       </c>
       <c r="L24" t="n">
-        <v>0.002405961</v>
+        <v>0.002397324</v>
       </c>
       <c r="M24" t="n">
-        <v>0.260064257</v>
+        <v>0.256346355</v>
       </c>
       <c r="N24" t="n">
-        <v>0.351202431</v>
+        <v>0.350891813</v>
       </c>
       <c r="O24" t="n">
-        <v>0.471354102</v>
+        <v>0.460250429</v>
       </c>
       <c r="P24" t="n">
-        <v>0.243122039</v>
+        <v>0.238150517</v>
       </c>
       <c r="Q24" t="n">
         <v>30</v>
@@ -2556,25 +2556,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.06391227400000001</v>
+        <v>0.063215378</v>
       </c>
       <c r="K25" t="n">
-        <v>0.002769293</v>
+        <v>0.002775417</v>
       </c>
       <c r="L25" t="n">
-        <v>0.005061881</v>
+        <v>0.004976217</v>
       </c>
       <c r="M25" t="n">
-        <v>0.259588664</v>
+        <v>0.261352012</v>
       </c>
       <c r="N25" t="n">
-        <v>0.345328727</v>
+        <v>0.349282634</v>
       </c>
       <c r="O25" t="n">
-        <v>0.485647077</v>
+        <v>0.478314493</v>
       </c>
       <c r="P25" t="n">
-        <v>0.245591508</v>
+        <v>0.24214477</v>
       </c>
       <c r="Q25" t="n">
         <v>30</v>
@@ -2608,6 +2608,6381 @@
       </c>
       <c r="AA25" t="n">
         <v>240</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MNT159</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>512</v>
+      </c>
+      <c r="C26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" t="n">
+        <v>15</v>
+      </c>
+      <c r="E26" t="n">
+        <v>15</v>
+      </c>
+      <c r="F26" t="n">
+        <v>20</v>
+      </c>
+      <c r="G26" t="n">
+        <v>20</v>
+      </c>
+      <c r="H26" t="n">
+        <v>20</v>
+      </c>
+      <c r="I26" t="n">
+        <v>20</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.06255849199999999</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.004050638</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.007464914</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.255417661</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.350435947</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.300091094</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.248969223</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>30</v>
+      </c>
+      <c r="R26" t="n">
+        <v>30</v>
+      </c>
+      <c r="S26" t="n">
+        <v>86</v>
+      </c>
+      <c r="T26" t="n">
+        <v>162</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2968</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1646</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1050</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1050</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>5704</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>5704</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MNT159</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>512</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="n">
+        <v>15</v>
+      </c>
+      <c r="E27" t="n">
+        <v>20</v>
+      </c>
+      <c r="F27" t="n">
+        <v>20</v>
+      </c>
+      <c r="G27" t="n">
+        <v>20</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.06506977799999999</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.005530203</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.010136216</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.254937811</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.359316324</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.611449457</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.348705534</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>30</v>
+      </c>
+      <c r="R27" t="n">
+        <v>30</v>
+      </c>
+      <c r="S27" t="n">
+        <v>86</v>
+      </c>
+      <c r="T27" t="n">
+        <v>162</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2968</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1646</v>
+      </c>
+      <c r="W27" t="n">
+        <v>900</v>
+      </c>
+      <c r="X27" t="n">
+        <v>900</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>5704</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>5704</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MNT159</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>512</v>
+      </c>
+      <c r="C28" t="n">
+        <v>25</v>
+      </c>
+      <c r="D28" t="n">
+        <v>20</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>20</v>
+      </c>
+      <c r="G28" t="n">
+        <v>20</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.062783671</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.001402341</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.002365209</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.265526473</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.343785122</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.616665192</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.310886317</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>30</v>
+      </c>
+      <c r="R28" t="n">
+        <v>30</v>
+      </c>
+      <c r="S28" t="n">
+        <v>86</v>
+      </c>
+      <c r="T28" t="n">
+        <v>162</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2968</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1646</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1350</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>4114</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>4114</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>MNT159</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>512</v>
+      </c>
+      <c r="C29" t="n">
+        <v>25</v>
+      </c>
+      <c r="D29" t="n">
+        <v>20</v>
+      </c>
+      <c r="E29" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" t="n">
+        <v>20</v>
+      </c>
+      <c r="G29" t="n">
+        <v>20</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.062001515</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.002718376</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.004917019</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.268612357</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.347364591</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.638148519</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.32314291</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>30</v>
+      </c>
+      <c r="R29" t="n">
+        <v>30</v>
+      </c>
+      <c r="S29" t="n">
+        <v>86</v>
+      </c>
+      <c r="T29" t="n">
+        <v>162</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2968</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1646</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1200</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>4114</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>4114</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MNT159</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>512</v>
+      </c>
+      <c r="C30" t="n">
+        <v>25</v>
+      </c>
+      <c r="D30" t="n">
+        <v>20</v>
+      </c>
+      <c r="E30" t="n">
+        <v>15</v>
+      </c>
+      <c r="F30" t="n">
+        <v>20</v>
+      </c>
+      <c r="G30" t="n">
+        <v>20</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.062584511</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.004068971</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.007398564</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.262106249</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.354141046</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.642257262</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.328154275</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>30</v>
+      </c>
+      <c r="R30" t="n">
+        <v>30</v>
+      </c>
+      <c r="S30" t="n">
+        <v>86</v>
+      </c>
+      <c r="T30" t="n">
+        <v>162</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2968</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1646</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1050</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1050</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>4114</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>4114</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MNT159</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>512</v>
+      </c>
+      <c r="C31" t="n">
+        <v>25</v>
+      </c>
+      <c r="D31" t="n">
+        <v>20</v>
+      </c>
+      <c r="E31" t="n">
+        <v>20</v>
+      </c>
+      <c r="F31" t="n">
+        <v>20</v>
+      </c>
+      <c r="G31" t="n">
+        <v>20</v>
+      </c>
+      <c r="H31" t="n">
+        <v>20</v>
+      </c>
+      <c r="I31" t="n">
+        <v>20</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.061963314</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.005391952</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.009862495000000001</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.26128664</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.343403163</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.391036305</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.31710168</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>30</v>
+      </c>
+      <c r="R31" t="n">
+        <v>30</v>
+      </c>
+      <c r="S31" t="n">
+        <v>86</v>
+      </c>
+      <c r="T31" t="n">
+        <v>162</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2968</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1646</v>
+      </c>
+      <c r="W31" t="n">
+        <v>900</v>
+      </c>
+      <c r="X31" t="n">
+        <v>900</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>4114</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>4114</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>MNT159</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>512</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>5</v>
+      </c>
+      <c r="F32" t="n">
+        <v>20</v>
+      </c>
+      <c r="G32" t="n">
+        <v>20</v>
+      </c>
+      <c r="H32" t="n">
+        <v>20</v>
+      </c>
+      <c r="I32" t="n">
+        <v>20</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.07243051</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.001373348</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.00232376</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.275647947</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.417177944</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.103780189</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.078780188</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>30</v>
+      </c>
+      <c r="R32" t="n">
+        <v>30</v>
+      </c>
+      <c r="S32" t="n">
+        <v>86</v>
+      </c>
+      <c r="T32" t="n">
+        <v>162</v>
+      </c>
+      <c r="U32" t="n">
+        <v>3398</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1946</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1650</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1650</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>10904</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>10904</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MNT159</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>512</v>
+      </c>
+      <c r="C33" t="n">
+        <v>30</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>10</v>
+      </c>
+      <c r="F33" t="n">
+        <v>20</v>
+      </c>
+      <c r="G33" t="n">
+        <v>20</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.07230366100000001</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.002710198</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.004854449</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.274647836</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.408182892</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.264779718</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.167262117</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>30</v>
+      </c>
+      <c r="R33" t="n">
+        <v>30</v>
+      </c>
+      <c r="S33" t="n">
+        <v>86</v>
+      </c>
+      <c r="T33" t="n">
+        <v>162</v>
+      </c>
+      <c r="U33" t="n">
+        <v>3398</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1946</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1500</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>10904</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>10904</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MNT159</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>512</v>
+      </c>
+      <c r="C34" t="n">
+        <v>30</v>
+      </c>
+      <c r="D34" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>15</v>
+      </c>
+      <c r="F34" t="n">
+        <v>20</v>
+      </c>
+      <c r="G34" t="n">
+        <v>20</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.07343301000000001</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.004162469</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.0074251</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.279226546</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.410444411</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.37580227</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.245888112</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>30</v>
+      </c>
+      <c r="R34" t="n">
+        <v>30</v>
+      </c>
+      <c r="S34" t="n">
+        <v>86</v>
+      </c>
+      <c r="T34" t="n">
+        <v>162</v>
+      </c>
+      <c r="U34" t="n">
+        <v>3398</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1946</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1350</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>10904</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>10904</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MNT159</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>512</v>
+      </c>
+      <c r="C35" t="n">
+        <v>30</v>
+      </c>
+      <c r="D35" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>20</v>
+      </c>
+      <c r="F35" t="n">
+        <v>20</v>
+      </c>
+      <c r="G35" t="n">
+        <v>20</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.072924433</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.005426949</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.009868060999999999</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.274236459</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.411602906</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.486510158</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.348341889</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>30</v>
+      </c>
+      <c r="R35" t="n">
+        <v>30</v>
+      </c>
+      <c r="S35" t="n">
+        <v>86</v>
+      </c>
+      <c r="T35" t="n">
+        <v>162</v>
+      </c>
+      <c r="U35" t="n">
+        <v>3398</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1946</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1200</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>10904</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>10904</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MNT159</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>512</v>
+      </c>
+      <c r="C36" t="n">
+        <v>30</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>25</v>
+      </c>
+      <c r="F36" t="n">
+        <v>20</v>
+      </c>
+      <c r="G36" t="n">
+        <v>20</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.07431367799999999</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.006880479</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.012653872</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.282594755</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.419814009</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.585390959</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.420981027</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>30</v>
+      </c>
+      <c r="R36" t="n">
+        <v>30</v>
+      </c>
+      <c r="S36" t="n">
+        <v>86</v>
+      </c>
+      <c r="T36" t="n">
+        <v>162</v>
+      </c>
+      <c r="U36" t="n">
+        <v>3398</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1946</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1050</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1050</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>10904</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>10904</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MNT159</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>512</v>
+      </c>
+      <c r="C37" t="n">
+        <v>30</v>
+      </c>
+      <c r="D37" t="n">
+        <v>10</v>
+      </c>
+      <c r="E37" t="n">
+        <v>5</v>
+      </c>
+      <c r="F37" t="n">
+        <v>20</v>
+      </c>
+      <c r="G37" t="n">
+        <v>20</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.074357662</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.001404678</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.002442606</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.289822832</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.412114282</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.316547829</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.162554504</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>30</v>
+      </c>
+      <c r="R37" t="n">
+        <v>30</v>
+      </c>
+      <c r="S37" t="n">
+        <v>86</v>
+      </c>
+      <c r="T37" t="n">
+        <v>162</v>
+      </c>
+      <c r="U37" t="n">
+        <v>3398</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1946</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1650</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1650</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>9314</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>9314</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MNT159</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>512</v>
+      </c>
+      <c r="C38" t="n">
+        <v>30</v>
+      </c>
+      <c r="D38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E38" t="n">
+        <v>10</v>
+      </c>
+      <c r="F38" t="n">
+        <v>20</v>
+      </c>
+      <c r="G38" t="n">
+        <v>20</v>
+      </c>
+      <c r="H38" t="n">
+        <v>20</v>
+      </c>
+      <c r="I38" t="n">
+        <v>20</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.073670293</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.002786325</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.004972867</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.289170642</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.415096655</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.204651367</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.159563528</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>30</v>
+      </c>
+      <c r="R38" t="n">
+        <v>30</v>
+      </c>
+      <c r="S38" t="n">
+        <v>86</v>
+      </c>
+      <c r="T38" t="n">
+        <v>162</v>
+      </c>
+      <c r="U38" t="n">
+        <v>3398</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1946</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1500</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>9314</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>9314</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MNT159</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>512</v>
+      </c>
+      <c r="C39" t="n">
+        <v>30</v>
+      </c>
+      <c r="D39" t="n">
+        <v>10</v>
+      </c>
+      <c r="E39" t="n">
+        <v>15</v>
+      </c>
+      <c r="F39" t="n">
+        <v>20</v>
+      </c>
+      <c r="G39" t="n">
+        <v>20</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.074700633</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.004112643</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.00764627</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.297159228</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.419919261</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.444789843</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.251284815</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>30</v>
+      </c>
+      <c r="R39" t="n">
+        <v>30</v>
+      </c>
+      <c r="S39" t="n">
+        <v>86</v>
+      </c>
+      <c r="T39" t="n">
+        <v>162</v>
+      </c>
+      <c r="U39" t="n">
+        <v>3398</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1946</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1350</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>9314</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>9314</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MNT159</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>512</v>
+      </c>
+      <c r="C40" t="n">
+        <v>30</v>
+      </c>
+      <c r="D40" t="n">
+        <v>10</v>
+      </c>
+      <c r="E40" t="n">
+        <v>20</v>
+      </c>
+      <c r="F40" t="n">
+        <v>20</v>
+      </c>
+      <c r="G40" t="n">
+        <v>20</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.074361385</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.005480452</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.010055012</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.288348564</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.415694313</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.535088413</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.336308816</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>30</v>
+      </c>
+      <c r="R40" t="n">
+        <v>30</v>
+      </c>
+      <c r="S40" t="n">
+        <v>86</v>
+      </c>
+      <c r="T40" t="n">
+        <v>162</v>
+      </c>
+      <c r="U40" t="n">
+        <v>3398</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1946</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1200</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>9314</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>9314</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MNT159</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>512</v>
+      </c>
+      <c r="C41" t="n">
+        <v>30</v>
+      </c>
+      <c r="D41" t="n">
+        <v>10</v>
+      </c>
+      <c r="E41" t="n">
+        <v>25</v>
+      </c>
+      <c r="F41" t="n">
+        <v>20</v>
+      </c>
+      <c r="G41" t="n">
+        <v>20</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.07236332600000001</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.006744192</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.012490221</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.286385359</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.412519484</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.6435691019999999</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.407863457</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>30</v>
+      </c>
+      <c r="R41" t="n">
+        <v>30</v>
+      </c>
+      <c r="S41" t="n">
+        <v>86</v>
+      </c>
+      <c r="T41" t="n">
+        <v>162</v>
+      </c>
+      <c r="U41" t="n">
+        <v>3398</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1946</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1050</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1050</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>9314</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>9314</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MNT159</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>512</v>
+      </c>
+      <c r="C42" t="n">
+        <v>30</v>
+      </c>
+      <c r="D42" t="n">
+        <v>15</v>
+      </c>
+      <c r="E42" t="n">
+        <v>5</v>
+      </c>
+      <c r="F42" t="n">
+        <v>20</v>
+      </c>
+      <c r="G42" t="n">
+        <v>20</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.07474491699999999</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.001394054</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.002372564</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.292254307</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.417895886</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.457185342</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.235633708</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>30</v>
+      </c>
+      <c r="R42" t="n">
+        <v>30</v>
+      </c>
+      <c r="S42" t="n">
+        <v>86</v>
+      </c>
+      <c r="T42" t="n">
+        <v>162</v>
+      </c>
+      <c r="U42" t="n">
+        <v>3398</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1946</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1650</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1650</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>7724</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>7724</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>MNT159</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>512</v>
+      </c>
+      <c r="C43" t="n">
+        <v>30</v>
+      </c>
+      <c r="D43" t="n">
+        <v>15</v>
+      </c>
+      <c r="E43" t="n">
+        <v>10</v>
+      </c>
+      <c r="F43" t="n">
+        <v>20</v>
+      </c>
+      <c r="G43" t="n">
+        <v>20</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.07432689200000001</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.002802739</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.005008933</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.295334906</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.401139545</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.476234041</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.238696696</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>30</v>
+      </c>
+      <c r="R43" t="n">
+        <v>30</v>
+      </c>
+      <c r="S43" t="n">
+        <v>86</v>
+      </c>
+      <c r="T43" t="n">
+        <v>162</v>
+      </c>
+      <c r="U43" t="n">
+        <v>3398</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1946</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1500</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>7724</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>7724</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>MNT159</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>512</v>
+      </c>
+      <c r="C44" t="n">
+        <v>30</v>
+      </c>
+      <c r="D44" t="n">
+        <v>15</v>
+      </c>
+      <c r="E44" t="n">
+        <v>15</v>
+      </c>
+      <c r="F44" t="n">
+        <v>20</v>
+      </c>
+      <c r="G44" t="n">
+        <v>20</v>
+      </c>
+      <c r="H44" t="n">
+        <v>20</v>
+      </c>
+      <c r="I44" t="n">
+        <v>20</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.075396373</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.004135174</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.007495614</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.303604354</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.416247391</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.307807101</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.242171127</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>30</v>
+      </c>
+      <c r="R44" t="n">
+        <v>30</v>
+      </c>
+      <c r="S44" t="n">
+        <v>86</v>
+      </c>
+      <c r="T44" t="n">
+        <v>162</v>
+      </c>
+      <c r="U44" t="n">
+        <v>3398</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1946</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1350</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>7724</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>7724</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>MNT159</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>512</v>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>15</v>
+      </c>
+      <c r="E45" t="n">
+        <v>20</v>
+      </c>
+      <c r="F45" t="n">
+        <v>20</v>
+      </c>
+      <c r="G45" t="n">
+        <v>20</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.072048584</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.00536023</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.009815910000000001</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.300221185</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.404280888</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.596197634</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.32454004</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>30</v>
+      </c>
+      <c r="R45" t="n">
+        <v>30</v>
+      </c>
+      <c r="S45" t="n">
+        <v>86</v>
+      </c>
+      <c r="T45" t="n">
+        <v>162</v>
+      </c>
+      <c r="U45" t="n">
+        <v>3398</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1946</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1200</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>7724</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>7724</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>MNT159</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>512</v>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>15</v>
+      </c>
+      <c r="E46" t="n">
+        <v>25</v>
+      </c>
+      <c r="F46" t="n">
+        <v>20</v>
+      </c>
+      <c r="G46" t="n">
+        <v>20</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.07199386100000001</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.006701958</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.012447736</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.291978509</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.397471283</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.661408177</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.399344092</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>30</v>
+      </c>
+      <c r="R46" t="n">
+        <v>30</v>
+      </c>
+      <c r="S46" t="n">
+        <v>86</v>
+      </c>
+      <c r="T46" t="n">
+        <v>162</v>
+      </c>
+      <c r="U46" t="n">
+        <v>3398</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1946</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1050</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1050</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>7724</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>7724</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MNT159</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>512</v>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>20</v>
+      </c>
+      <c r="E47" t="n">
+        <v>5</v>
+      </c>
+      <c r="F47" t="n">
+        <v>20</v>
+      </c>
+      <c r="G47" t="n">
+        <v>20</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.071858772</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.001349487</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.00229049</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.30229611</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.406576659</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.595554897</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.300747661</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>30</v>
+      </c>
+      <c r="R47" t="n">
+        <v>30</v>
+      </c>
+      <c r="S47" t="n">
+        <v>86</v>
+      </c>
+      <c r="T47" t="n">
+        <v>162</v>
+      </c>
+      <c r="U47" t="n">
+        <v>3398</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1946</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1650</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1650</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>6134</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>6134</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>MNT159</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>512</v>
+      </c>
+      <c r="C48" t="n">
+        <v>30</v>
+      </c>
+      <c r="D48" t="n">
+        <v>20</v>
+      </c>
+      <c r="E48" t="n">
+        <v>10</v>
+      </c>
+      <c r="F48" t="n">
+        <v>20</v>
+      </c>
+      <c r="G48" t="n">
+        <v>20</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.073951714</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.002739938</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.00487969</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.310423074</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.409163015</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.617382176</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.320121077</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>30</v>
+      </c>
+      <c r="R48" t="n">
+        <v>30</v>
+      </c>
+      <c r="S48" t="n">
+        <v>86</v>
+      </c>
+      <c r="T48" t="n">
+        <v>162</v>
+      </c>
+      <c r="U48" t="n">
+        <v>3398</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1946</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1500</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>6134</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>6134</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>MNT159</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>512</v>
+      </c>
+      <c r="C49" t="n">
+        <v>30</v>
+      </c>
+      <c r="D49" t="n">
+        <v>20</v>
+      </c>
+      <c r="E49" t="n">
+        <v>15</v>
+      </c>
+      <c r="F49" t="n">
+        <v>20</v>
+      </c>
+      <c r="G49" t="n">
+        <v>20</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.071985417</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.004106609</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.007501896</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.304287683</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.405047957</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.640101772</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.308039443</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>30</v>
+      </c>
+      <c r="R49" t="n">
+        <v>30</v>
+      </c>
+      <c r="S49" t="n">
+        <v>86</v>
+      </c>
+      <c r="T49" t="n">
+        <v>162</v>
+      </c>
+      <c r="U49" t="n">
+        <v>3398</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1946</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1350</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>6134</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>6134</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>MNT159</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>512</v>
+      </c>
+      <c r="C50" t="n">
+        <v>30</v>
+      </c>
+      <c r="D50" t="n">
+        <v>20</v>
+      </c>
+      <c r="E50" t="n">
+        <v>20</v>
+      </c>
+      <c r="F50" t="n">
+        <v>20</v>
+      </c>
+      <c r="G50" t="n">
+        <v>20</v>
+      </c>
+      <c r="H50" t="n">
+        <v>20</v>
+      </c>
+      <c r="I50" t="n">
+        <v>20</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.072618325</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.005365484</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.009906121</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.311282647</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.407144249</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.405380728</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.301585269</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>30</v>
+      </c>
+      <c r="R50" t="n">
+        <v>30</v>
+      </c>
+      <c r="S50" t="n">
+        <v>86</v>
+      </c>
+      <c r="T50" t="n">
+        <v>162</v>
+      </c>
+      <c r="U50" t="n">
+        <v>3398</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1946</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1200</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>6134</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>6134</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>MNT159</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>512</v>
+      </c>
+      <c r="C51" t="n">
+        <v>30</v>
+      </c>
+      <c r="D51" t="n">
+        <v>20</v>
+      </c>
+      <c r="E51" t="n">
+        <v>25</v>
+      </c>
+      <c r="F51" t="n">
+        <v>20</v>
+      </c>
+      <c r="G51" t="n">
+        <v>20</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.072262756</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.006694449</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.012319954</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.307171356</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.403862491</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.758052763</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.402964083</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>30</v>
+      </c>
+      <c r="R51" t="n">
+        <v>30</v>
+      </c>
+      <c r="S51" t="n">
+        <v>86</v>
+      </c>
+      <c r="T51" t="n">
+        <v>162</v>
+      </c>
+      <c r="U51" t="n">
+        <v>3398</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1946</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1050</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1050</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>6134</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>6134</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>MNT159</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>512</v>
+      </c>
+      <c r="C52" t="n">
+        <v>30</v>
+      </c>
+      <c r="D52" t="n">
+        <v>25</v>
+      </c>
+      <c r="E52" t="n">
+        <v>5</v>
+      </c>
+      <c r="F52" t="n">
+        <v>20</v>
+      </c>
+      <c r="G52" t="n">
+        <v>20</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.073960252</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.001393127</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.002354455</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.318134592</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.415434208</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.772258876</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.409090051</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>30</v>
+      </c>
+      <c r="R52" t="n">
+        <v>30</v>
+      </c>
+      <c r="S52" t="n">
+        <v>86</v>
+      </c>
+      <c r="T52" t="n">
+        <v>162</v>
+      </c>
+      <c r="U52" t="n">
+        <v>3398</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1946</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1650</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1650</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>4544</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>4544</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>MNT159</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>512</v>
+      </c>
+      <c r="C53" t="n">
+        <v>30</v>
+      </c>
+      <c r="D53" t="n">
+        <v>25</v>
+      </c>
+      <c r="E53" t="n">
+        <v>10</v>
+      </c>
+      <c r="F53" t="n">
+        <v>20</v>
+      </c>
+      <c r="G53" t="n">
+        <v>20</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.072505809</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.002700904</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.004835325</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.320440311</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.41311023</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.783859064</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.398157193</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>30</v>
+      </c>
+      <c r="R53" t="n">
+        <v>30</v>
+      </c>
+      <c r="S53" t="n">
+        <v>86</v>
+      </c>
+      <c r="T53" t="n">
+        <v>162</v>
+      </c>
+      <c r="U53" t="n">
+        <v>3398</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1946</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1500</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>4544</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>4544</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>MNT159</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>512</v>
+      </c>
+      <c r="C54" t="n">
+        <v>30</v>
+      </c>
+      <c r="D54" t="n">
+        <v>25</v>
+      </c>
+      <c r="E54" t="n">
+        <v>15</v>
+      </c>
+      <c r="F54" t="n">
+        <v>20</v>
+      </c>
+      <c r="G54" t="n">
+        <v>20</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.078947744</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.004321524</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.008028733999999999</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.336915924</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.433995996</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.818393623</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.420062835</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>30</v>
+      </c>
+      <c r="R54" t="n">
+        <v>30</v>
+      </c>
+      <c r="S54" t="n">
+        <v>86</v>
+      </c>
+      <c r="T54" t="n">
+        <v>162</v>
+      </c>
+      <c r="U54" t="n">
+        <v>3398</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1946</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1350</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>4544</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>4544</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>MNT159</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>512</v>
+      </c>
+      <c r="C55" t="n">
+        <v>30</v>
+      </c>
+      <c r="D55" t="n">
+        <v>25</v>
+      </c>
+      <c r="E55" t="n">
+        <v>20</v>
+      </c>
+      <c r="F55" t="n">
+        <v>20</v>
+      </c>
+      <c r="G55" t="n">
+        <v>20</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.074064383</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.00567601</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.010201024</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.320336584</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.417835266</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.80633172</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.407075521</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>30</v>
+      </c>
+      <c r="R55" t="n">
+        <v>30</v>
+      </c>
+      <c r="S55" t="n">
+        <v>86</v>
+      </c>
+      <c r="T55" t="n">
+        <v>162</v>
+      </c>
+      <c r="U55" t="n">
+        <v>3398</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1946</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1200</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>4544</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>4544</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>MNT159</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>512</v>
+      </c>
+      <c r="C56" t="n">
+        <v>30</v>
+      </c>
+      <c r="D56" t="n">
+        <v>25</v>
+      </c>
+      <c r="E56" t="n">
+        <v>25</v>
+      </c>
+      <c r="F56" t="n">
+        <v>20</v>
+      </c>
+      <c r="G56" t="n">
+        <v>20</v>
+      </c>
+      <c r="H56" t="n">
+        <v>20</v>
+      </c>
+      <c r="I56" t="n">
+        <v>20</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.073993054</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.006838046</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.012655455</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.323223726</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.411399385</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.498134832</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.413217469</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>30</v>
+      </c>
+      <c r="R56" t="n">
+        <v>30</v>
+      </c>
+      <c r="S56" t="n">
+        <v>86</v>
+      </c>
+      <c r="T56" t="n">
+        <v>162</v>
+      </c>
+      <c r="U56" t="n">
+        <v>3398</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1946</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1050</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1050</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>4544</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>4544</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>512</v>
+      </c>
+      <c r="C57" t="n">
+        <v>10</v>
+      </c>
+      <c r="D57" t="n">
+        <v>5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>5</v>
+      </c>
+      <c r="F57" t="n">
+        <v>20</v>
+      </c>
+      <c r="G57" t="n">
+        <v>20</v>
+      </c>
+      <c r="H57" t="n">
+        <v>20</v>
+      </c>
+      <c r="I57" t="n">
+        <v>20</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.041309931</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.0020942</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.003462141</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.150543084</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.221617901</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.142194029</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.116148156</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>34</v>
+      </c>
+      <c r="R57" t="n">
+        <v>38</v>
+      </c>
+      <c r="S57" t="n">
+        <v>110</v>
+      </c>
+      <c r="T57" t="n">
+        <v>210</v>
+      </c>
+      <c r="U57" t="n">
+        <v>2094</v>
+      </c>
+      <c r="V57" t="n">
+        <v>858</v>
+      </c>
+      <c r="W57" t="n">
+        <v>530</v>
+      </c>
+      <c r="X57" t="n">
+        <v>530</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>3568</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>3568</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>512</v>
+      </c>
+      <c r="C58" t="n">
+        <v>15</v>
+      </c>
+      <c r="D58" t="n">
+        <v>5</v>
+      </c>
+      <c r="E58" t="n">
+        <v>5</v>
+      </c>
+      <c r="F58" t="n">
+        <v>20</v>
+      </c>
+      <c r="G58" t="n">
+        <v>20</v>
+      </c>
+      <c r="H58" t="n">
+        <v>20</v>
+      </c>
+      <c r="I58" t="n">
+        <v>20</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.05515748</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.002137514</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.003502637</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.20564949</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.29030629</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.138370158</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.110323275</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>34</v>
+      </c>
+      <c r="R58" t="n">
+        <v>38</v>
+      </c>
+      <c r="S58" t="n">
+        <v>110</v>
+      </c>
+      <c r="T58" t="n">
+        <v>210</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2644</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1198</v>
+      </c>
+      <c r="W58" t="n">
+        <v>870</v>
+      </c>
+      <c r="X58" t="n">
+        <v>870</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>6108</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>6108</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>512</v>
+      </c>
+      <c r="C59" t="n">
+        <v>15</v>
+      </c>
+      <c r="D59" t="n">
+        <v>5</v>
+      </c>
+      <c r="E59" t="n">
+        <v>10</v>
+      </c>
+      <c r="F59" t="n">
+        <v>20</v>
+      </c>
+      <c r="G59" t="n">
+        <v>20</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.053846501</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.004155213</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.007135217</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.1996448</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.287352094</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.374556576</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.223896891</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>34</v>
+      </c>
+      <c r="R59" t="n">
+        <v>38</v>
+      </c>
+      <c r="S59" t="n">
+        <v>110</v>
+      </c>
+      <c r="T59" t="n">
+        <v>210</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2644</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1198</v>
+      </c>
+      <c r="W59" t="n">
+        <v>720</v>
+      </c>
+      <c r="X59" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>6108</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>6108</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>512</v>
+      </c>
+      <c r="C60" t="n">
+        <v>15</v>
+      </c>
+      <c r="D60" t="n">
+        <v>10</v>
+      </c>
+      <c r="E60" t="n">
+        <v>5</v>
+      </c>
+      <c r="F60" t="n">
+        <v>20</v>
+      </c>
+      <c r="G60" t="n">
+        <v>20</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.054931282</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.002162705</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.003442044</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.215592409</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.293880984</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.44025221</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.22588437</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>34</v>
+      </c>
+      <c r="R60" t="n">
+        <v>38</v>
+      </c>
+      <c r="S60" t="n">
+        <v>110</v>
+      </c>
+      <c r="T60" t="n">
+        <v>210</v>
+      </c>
+      <c r="U60" t="n">
+        <v>2644</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1198</v>
+      </c>
+      <c r="W60" t="n">
+        <v>870</v>
+      </c>
+      <c r="X60" t="n">
+        <v>870</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>4118</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>4118</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>512</v>
+      </c>
+      <c r="C61" t="n">
+        <v>15</v>
+      </c>
+      <c r="D61" t="n">
+        <v>10</v>
+      </c>
+      <c r="E61" t="n">
+        <v>10</v>
+      </c>
+      <c r="F61" t="n">
+        <v>20</v>
+      </c>
+      <c r="G61" t="n">
+        <v>20</v>
+      </c>
+      <c r="H61" t="n">
+        <v>20</v>
+      </c>
+      <c r="I61" t="n">
+        <v>20</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.054815053</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.00413938</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.007283095</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.221339184</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.299259211</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.283300147</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.223064965</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>34</v>
+      </c>
+      <c r="R61" t="n">
+        <v>38</v>
+      </c>
+      <c r="S61" t="n">
+        <v>110</v>
+      </c>
+      <c r="T61" t="n">
+        <v>210</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2644</v>
+      </c>
+      <c r="V61" t="n">
+        <v>1198</v>
+      </c>
+      <c r="W61" t="n">
+        <v>720</v>
+      </c>
+      <c r="X61" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>4118</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>4118</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>512</v>
+      </c>
+      <c r="C62" t="n">
+        <v>20</v>
+      </c>
+      <c r="D62" t="n">
+        <v>5</v>
+      </c>
+      <c r="E62" t="n">
+        <v>5</v>
+      </c>
+      <c r="F62" t="n">
+        <v>20</v>
+      </c>
+      <c r="G62" t="n">
+        <v>20</v>
+      </c>
+      <c r="H62" t="n">
+        <v>20</v>
+      </c>
+      <c r="I62" t="n">
+        <v>20</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.066672497</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.00204179</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.003348421</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.255201793</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.368912647</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.14686141</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.109547884</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>34</v>
+      </c>
+      <c r="R62" t="n">
+        <v>38</v>
+      </c>
+      <c r="S62" t="n">
+        <v>110</v>
+      </c>
+      <c r="T62" t="n">
+        <v>210</v>
+      </c>
+      <c r="U62" t="n">
+        <v>3194</v>
+      </c>
+      <c r="V62" t="n">
+        <v>1538</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1210</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1210</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>8648</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>8648</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>512</v>
+      </c>
+      <c r="C63" t="n">
+        <v>20</v>
+      </c>
+      <c r="D63" t="n">
+        <v>5</v>
+      </c>
+      <c r="E63" t="n">
+        <v>10</v>
+      </c>
+      <c r="F63" t="n">
+        <v>20</v>
+      </c>
+      <c r="G63" t="n">
+        <v>20</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.06808460500000001</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.004223293</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.00729444</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.253345166</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.375644412</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.367549261</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.23259041</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>34</v>
+      </c>
+      <c r="R63" t="n">
+        <v>38</v>
+      </c>
+      <c r="S63" t="n">
+        <v>110</v>
+      </c>
+      <c r="T63" t="n">
+        <v>210</v>
+      </c>
+      <c r="U63" t="n">
+        <v>3194</v>
+      </c>
+      <c r="V63" t="n">
+        <v>1538</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1060</v>
+      </c>
+      <c r="X63" t="n">
+        <v>1060</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>8648</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>8648</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>512</v>
+      </c>
+      <c r="C64" t="n">
+        <v>20</v>
+      </c>
+      <c r="D64" t="n">
+        <v>5</v>
+      </c>
+      <c r="E64" t="n">
+        <v>15</v>
+      </c>
+      <c r="F64" t="n">
+        <v>20</v>
+      </c>
+      <c r="G64" t="n">
+        <v>20</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.06891678399999999</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.006248929</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.011243894</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.254679869</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.374980086</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.5135775970000001</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.356212181</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>34</v>
+      </c>
+      <c r="R64" t="n">
+        <v>38</v>
+      </c>
+      <c r="S64" t="n">
+        <v>110</v>
+      </c>
+      <c r="T64" t="n">
+        <v>210</v>
+      </c>
+      <c r="U64" t="n">
+        <v>3194</v>
+      </c>
+      <c r="V64" t="n">
+        <v>1538</v>
+      </c>
+      <c r="W64" t="n">
+        <v>910</v>
+      </c>
+      <c r="X64" t="n">
+        <v>910</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>8648</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>8648</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>512</v>
+      </c>
+      <c r="C65" t="n">
+        <v>20</v>
+      </c>
+      <c r="D65" t="n">
+        <v>10</v>
+      </c>
+      <c r="E65" t="n">
+        <v>5</v>
+      </c>
+      <c r="F65" t="n">
+        <v>20</v>
+      </c>
+      <c r="G65" t="n">
+        <v>20</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.067605079</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.002085512</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.003422147</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.269524764</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.371470836</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.431489614</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.215891379</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>34</v>
+      </c>
+      <c r="R65" t="n">
+        <v>38</v>
+      </c>
+      <c r="S65" t="n">
+        <v>110</v>
+      </c>
+      <c r="T65" t="n">
+        <v>210</v>
+      </c>
+      <c r="U65" t="n">
+        <v>3194</v>
+      </c>
+      <c r="V65" t="n">
+        <v>1538</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1210</v>
+      </c>
+      <c r="X65" t="n">
+        <v>1210</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>6658</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>6658</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>512</v>
+      </c>
+      <c r="C66" t="n">
+        <v>20</v>
+      </c>
+      <c r="D66" t="n">
+        <v>10</v>
+      </c>
+      <c r="E66" t="n">
+        <v>10</v>
+      </c>
+      <c r="F66" t="n">
+        <v>20</v>
+      </c>
+      <c r="G66" t="n">
+        <v>20</v>
+      </c>
+      <c r="H66" t="n">
+        <v>20</v>
+      </c>
+      <c r="I66" t="n">
+        <v>20</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.06798631099999999</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.004097149</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.007246569</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.276068023</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.385447612</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.281551926</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.22772395</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>34</v>
+      </c>
+      <c r="R66" t="n">
+        <v>38</v>
+      </c>
+      <c r="S66" t="n">
+        <v>110</v>
+      </c>
+      <c r="T66" t="n">
+        <v>210</v>
+      </c>
+      <c r="U66" t="n">
+        <v>3194</v>
+      </c>
+      <c r="V66" t="n">
+        <v>1538</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1060</v>
+      </c>
+      <c r="X66" t="n">
+        <v>1060</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>6658</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>6658</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>512</v>
+      </c>
+      <c r="C67" t="n">
+        <v>20</v>
+      </c>
+      <c r="D67" t="n">
+        <v>10</v>
+      </c>
+      <c r="E67" t="n">
+        <v>15</v>
+      </c>
+      <c r="F67" t="n">
+        <v>20</v>
+      </c>
+      <c r="G67" t="n">
+        <v>20</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.070432749</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.006438678</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.011364272</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.281921634</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.377725947</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.601272947</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.344812057</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>34</v>
+      </c>
+      <c r="R67" t="n">
+        <v>38</v>
+      </c>
+      <c r="S67" t="n">
+        <v>110</v>
+      </c>
+      <c r="T67" t="n">
+        <v>210</v>
+      </c>
+      <c r="U67" t="n">
+        <v>3194</v>
+      </c>
+      <c r="V67" t="n">
+        <v>1538</v>
+      </c>
+      <c r="W67" t="n">
+        <v>910</v>
+      </c>
+      <c r="X67" t="n">
+        <v>910</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>6658</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>6658</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>512</v>
+      </c>
+      <c r="C68" t="n">
+        <v>20</v>
+      </c>
+      <c r="D68" t="n">
+        <v>15</v>
+      </c>
+      <c r="E68" t="n">
+        <v>5</v>
+      </c>
+      <c r="F68" t="n">
+        <v>20</v>
+      </c>
+      <c r="G68" t="n">
+        <v>20</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.069362903</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.002121571</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.003501795</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.297530182</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.396007535</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.65938914</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.339713334</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>34</v>
+      </c>
+      <c r="R68" t="n">
+        <v>38</v>
+      </c>
+      <c r="S68" t="n">
+        <v>110</v>
+      </c>
+      <c r="T68" t="n">
+        <v>210</v>
+      </c>
+      <c r="U68" t="n">
+        <v>3194</v>
+      </c>
+      <c r="V68" t="n">
+        <v>1538</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1210</v>
+      </c>
+      <c r="X68" t="n">
+        <v>1210</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>4668</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>4668</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>512</v>
+      </c>
+      <c r="C69" t="n">
+        <v>20</v>
+      </c>
+      <c r="D69" t="n">
+        <v>15</v>
+      </c>
+      <c r="E69" t="n">
+        <v>10</v>
+      </c>
+      <c r="F69" t="n">
+        <v>20</v>
+      </c>
+      <c r="G69" t="n">
+        <v>20</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.06822531599999999</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.004142393</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.007236858</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.289869697</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.375907194</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.670015078</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.337095063</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>34</v>
+      </c>
+      <c r="R69" t="n">
+        <v>38</v>
+      </c>
+      <c r="S69" t="n">
+        <v>110</v>
+      </c>
+      <c r="T69" t="n">
+        <v>210</v>
+      </c>
+      <c r="U69" t="n">
+        <v>3194</v>
+      </c>
+      <c r="V69" t="n">
+        <v>1538</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1060</v>
+      </c>
+      <c r="X69" t="n">
+        <v>1060</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>4668</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>4668</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>512</v>
+      </c>
+      <c r="C70" t="n">
+        <v>20</v>
+      </c>
+      <c r="D70" t="n">
+        <v>15</v>
+      </c>
+      <c r="E70" t="n">
+        <v>15</v>
+      </c>
+      <c r="F70" t="n">
+        <v>20</v>
+      </c>
+      <c r="G70" t="n">
+        <v>20</v>
+      </c>
+      <c r="H70" t="n">
+        <v>20</v>
+      </c>
+      <c r="I70" t="n">
+        <v>20</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.068297566</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.006229829</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.011077199</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.294492309</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.388354428</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.417696553</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.342756926</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>34</v>
+      </c>
+      <c r="R70" t="n">
+        <v>38</v>
+      </c>
+      <c r="S70" t="n">
+        <v>110</v>
+      </c>
+      <c r="T70" t="n">
+        <v>210</v>
+      </c>
+      <c r="U70" t="n">
+        <v>3194</v>
+      </c>
+      <c r="V70" t="n">
+        <v>1538</v>
+      </c>
+      <c r="W70" t="n">
+        <v>910</v>
+      </c>
+      <c r="X70" t="n">
+        <v>910</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>4668</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>4668</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>512</v>
+      </c>
+      <c r="C71" t="n">
+        <v>25</v>
+      </c>
+      <c r="D71" t="n">
+        <v>5</v>
+      </c>
+      <c r="E71" t="n">
+        <v>5</v>
+      </c>
+      <c r="F71" t="n">
+        <v>20</v>
+      </c>
+      <c r="G71" t="n">
+        <v>20</v>
+      </c>
+      <c r="H71" t="n">
+        <v>20</v>
+      </c>
+      <c r="I71" t="n">
+        <v>20</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.082678429</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.002109775</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.003461006</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.309668991</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.459407534</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.145812134</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.1138313</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>34</v>
+      </c>
+      <c r="R71" t="n">
+        <v>38</v>
+      </c>
+      <c r="S71" t="n">
+        <v>110</v>
+      </c>
+      <c r="T71" t="n">
+        <v>210</v>
+      </c>
+      <c r="U71" t="n">
+        <v>3744</v>
+      </c>
+      <c r="V71" t="n">
+        <v>1878</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1550</v>
+      </c>
+      <c r="X71" t="n">
+        <v>1550</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>11188</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>11188</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>512</v>
+      </c>
+      <c r="C72" t="n">
+        <v>25</v>
+      </c>
+      <c r="D72" t="n">
+        <v>5</v>
+      </c>
+      <c r="E72" t="n">
+        <v>10</v>
+      </c>
+      <c r="F72" t="n">
+        <v>20</v>
+      </c>
+      <c r="G72" t="n">
+        <v>20</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.080379504</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.004088878</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.007148845</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.308444903</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.458738067</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.372274138</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.233447959</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>34</v>
+      </c>
+      <c r="R72" t="n">
+        <v>38</v>
+      </c>
+      <c r="S72" t="n">
+        <v>110</v>
+      </c>
+      <c r="T72" t="n">
+        <v>210</v>
+      </c>
+      <c r="U72" t="n">
+        <v>3744</v>
+      </c>
+      <c r="V72" t="n">
+        <v>1878</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1400</v>
+      </c>
+      <c r="X72" t="n">
+        <v>1400</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>11188</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>11188</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>512</v>
+      </c>
+      <c r="C73" t="n">
+        <v>25</v>
+      </c>
+      <c r="D73" t="n">
+        <v>5</v>
+      </c>
+      <c r="E73" t="n">
+        <v>15</v>
+      </c>
+      <c r="F73" t="n">
+        <v>20</v>
+      </c>
+      <c r="G73" t="n">
+        <v>20</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.082073653</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.006345364</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.01127882</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.307269267</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.459103865</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0.517961188</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.36714862</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>34</v>
+      </c>
+      <c r="R73" t="n">
+        <v>38</v>
+      </c>
+      <c r="S73" t="n">
+        <v>110</v>
+      </c>
+      <c r="T73" t="n">
+        <v>210</v>
+      </c>
+      <c r="U73" t="n">
+        <v>3744</v>
+      </c>
+      <c r="V73" t="n">
+        <v>1878</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1250</v>
+      </c>
+      <c r="X73" t="n">
+        <v>1250</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>11188</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>11188</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>512</v>
+      </c>
+      <c r="C74" t="n">
+        <v>25</v>
+      </c>
+      <c r="D74" t="n">
+        <v>5</v>
+      </c>
+      <c r="E74" t="n">
+        <v>20</v>
+      </c>
+      <c r="F74" t="n">
+        <v>20</v>
+      </c>
+      <c r="G74" t="n">
+        <v>20</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.08332511099999999</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.008476633000000001</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.015074455</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.316691949</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.471098192</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.657153536</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.47989938</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>34</v>
+      </c>
+      <c r="R74" t="n">
+        <v>38</v>
+      </c>
+      <c r="S74" t="n">
+        <v>110</v>
+      </c>
+      <c r="T74" t="n">
+        <v>210</v>
+      </c>
+      <c r="U74" t="n">
+        <v>3744</v>
+      </c>
+      <c r="V74" t="n">
+        <v>1878</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1100</v>
+      </c>
+      <c r="X74" t="n">
+        <v>1100</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>11188</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>11188</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>512</v>
+      </c>
+      <c r="C75" t="n">
+        <v>25</v>
+      </c>
+      <c r="D75" t="n">
+        <v>10</v>
+      </c>
+      <c r="E75" t="n">
+        <v>5</v>
+      </c>
+      <c r="F75" t="n">
+        <v>20</v>
+      </c>
+      <c r="G75" t="n">
+        <v>20</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.085101883</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.002145393</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.003612899</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.337131965</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.465181163</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0.461276917</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0.226943683</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>34</v>
+      </c>
+      <c r="R75" t="n">
+        <v>38</v>
+      </c>
+      <c r="S75" t="n">
+        <v>110</v>
+      </c>
+      <c r="T75" t="n">
+        <v>210</v>
+      </c>
+      <c r="U75" t="n">
+        <v>3744</v>
+      </c>
+      <c r="V75" t="n">
+        <v>1878</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1550</v>
+      </c>
+      <c r="X75" t="n">
+        <v>1550</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>9198</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>9198</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>512</v>
+      </c>
+      <c r="C76" t="n">
+        <v>25</v>
+      </c>
+      <c r="D76" t="n">
+        <v>10</v>
+      </c>
+      <c r="E76" t="n">
+        <v>10</v>
+      </c>
+      <c r="F76" t="n">
+        <v>20</v>
+      </c>
+      <c r="G76" t="n">
+        <v>20</v>
+      </c>
+      <c r="H76" t="n">
+        <v>20</v>
+      </c>
+      <c r="I76" t="n">
+        <v>20</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.08238829</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.00414821</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.007320119</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.339096538</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.46437334</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.286973979</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0.217498402</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>34</v>
+      </c>
+      <c r="R76" t="n">
+        <v>38</v>
+      </c>
+      <c r="S76" t="n">
+        <v>110</v>
+      </c>
+      <c r="T76" t="n">
+        <v>210</v>
+      </c>
+      <c r="U76" t="n">
+        <v>3744</v>
+      </c>
+      <c r="V76" t="n">
+        <v>1878</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1400</v>
+      </c>
+      <c r="X76" t="n">
+        <v>1400</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>9198</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>9198</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>512</v>
+      </c>
+      <c r="C77" t="n">
+        <v>25</v>
+      </c>
+      <c r="D77" t="n">
+        <v>10</v>
+      </c>
+      <c r="E77" t="n">
+        <v>15</v>
+      </c>
+      <c r="F77" t="n">
+        <v>20</v>
+      </c>
+      <c r="G77" t="n">
+        <v>20</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.082197993</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.006214477</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.01100855</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.318846472</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.461684993</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.610727732</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0.337502128</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>34</v>
+      </c>
+      <c r="R77" t="n">
+        <v>38</v>
+      </c>
+      <c r="S77" t="n">
+        <v>110</v>
+      </c>
+      <c r="T77" t="n">
+        <v>210</v>
+      </c>
+      <c r="U77" t="n">
+        <v>3744</v>
+      </c>
+      <c r="V77" t="n">
+        <v>1878</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1250</v>
+      </c>
+      <c r="X77" t="n">
+        <v>1250</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>9198</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>9198</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>512</v>
+      </c>
+      <c r="C78" t="n">
+        <v>25</v>
+      </c>
+      <c r="D78" t="n">
+        <v>10</v>
+      </c>
+      <c r="E78" t="n">
+        <v>20</v>
+      </c>
+      <c r="F78" t="n">
+        <v>20</v>
+      </c>
+      <c r="G78" t="n">
+        <v>20</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.080810939</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.008300511999999999</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.014638985</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.326624065</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.455633265</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.730445613</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0.454738759</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>34</v>
+      </c>
+      <c r="R78" t="n">
+        <v>38</v>
+      </c>
+      <c r="S78" t="n">
+        <v>110</v>
+      </c>
+      <c r="T78" t="n">
+        <v>210</v>
+      </c>
+      <c r="U78" t="n">
+        <v>3744</v>
+      </c>
+      <c r="V78" t="n">
+        <v>1878</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1100</v>
+      </c>
+      <c r="X78" t="n">
+        <v>1100</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>9198</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>9198</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>512</v>
+      </c>
+      <c r="C79" t="n">
+        <v>25</v>
+      </c>
+      <c r="D79" t="n">
+        <v>15</v>
+      </c>
+      <c r="E79" t="n">
+        <v>5</v>
+      </c>
+      <c r="F79" t="n">
+        <v>20</v>
+      </c>
+      <c r="G79" t="n">
+        <v>20</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.08267339999999999</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.002147526</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.003485104</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.350323214</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.475424671</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.678561283</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0.335286735</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>34</v>
+      </c>
+      <c r="R79" t="n">
+        <v>38</v>
+      </c>
+      <c r="S79" t="n">
+        <v>110</v>
+      </c>
+      <c r="T79" t="n">
+        <v>210</v>
+      </c>
+      <c r="U79" t="n">
+        <v>3744</v>
+      </c>
+      <c r="V79" t="n">
+        <v>1878</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1550</v>
+      </c>
+      <c r="X79" t="n">
+        <v>1550</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>7208</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>7208</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>512</v>
+      </c>
+      <c r="C80" t="n">
+        <v>25</v>
+      </c>
+      <c r="D80" t="n">
+        <v>15</v>
+      </c>
+      <c r="E80" t="n">
+        <v>10</v>
+      </c>
+      <c r="F80" t="n">
+        <v>20</v>
+      </c>
+      <c r="G80" t="n">
+        <v>20</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.082934891</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.004250678</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.007317779</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.343253325</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.479359133</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0.66860194</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0.350182444</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>34</v>
+      </c>
+      <c r="R80" t="n">
+        <v>38</v>
+      </c>
+      <c r="S80" t="n">
+        <v>110</v>
+      </c>
+      <c r="T80" t="n">
+        <v>210</v>
+      </c>
+      <c r="U80" t="n">
+        <v>3744</v>
+      </c>
+      <c r="V80" t="n">
+        <v>1878</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1400</v>
+      </c>
+      <c r="X80" t="n">
+        <v>1400</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>7208</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>7208</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>512</v>
+      </c>
+      <c r="C81" t="n">
+        <v>25</v>
+      </c>
+      <c r="D81" t="n">
+        <v>15</v>
+      </c>
+      <c r="E81" t="n">
+        <v>15</v>
+      </c>
+      <c r="F81" t="n">
+        <v>20</v>
+      </c>
+      <c r="G81" t="n">
+        <v>20</v>
+      </c>
+      <c r="H81" t="n">
+        <v>20</v>
+      </c>
+      <c r="I81" t="n">
+        <v>20</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.082640002</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.006477802</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.011176598</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.352208118</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.471873849</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.43345735</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0.328225182</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>34</v>
+      </c>
+      <c r="R81" t="n">
+        <v>38</v>
+      </c>
+      <c r="S81" t="n">
+        <v>110</v>
+      </c>
+      <c r="T81" t="n">
+        <v>210</v>
+      </c>
+      <c r="U81" t="n">
+        <v>3744</v>
+      </c>
+      <c r="V81" t="n">
+        <v>1878</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1250</v>
+      </c>
+      <c r="X81" t="n">
+        <v>1250</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>7208</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>7208</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>512</v>
+      </c>
+      <c r="C82" t="n">
+        <v>25</v>
+      </c>
+      <c r="D82" t="n">
+        <v>15</v>
+      </c>
+      <c r="E82" t="n">
+        <v>20</v>
+      </c>
+      <c r="F82" t="n">
+        <v>20</v>
+      </c>
+      <c r="G82" t="n">
+        <v>20</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.08317102699999999</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.008418520000000001</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.014815552</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.353902279</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.476911875</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.8225199010000001</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0.459421112</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>34</v>
+      </c>
+      <c r="R82" t="n">
+        <v>38</v>
+      </c>
+      <c r="S82" t="n">
+        <v>110</v>
+      </c>
+      <c r="T82" t="n">
+        <v>210</v>
+      </c>
+      <c r="U82" t="n">
+        <v>3744</v>
+      </c>
+      <c r="V82" t="n">
+        <v>1878</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1100</v>
+      </c>
+      <c r="X82" t="n">
+        <v>1100</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>7208</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>7208</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>512</v>
+      </c>
+      <c r="C83" t="n">
+        <v>25</v>
+      </c>
+      <c r="D83" t="n">
+        <v>20</v>
+      </c>
+      <c r="E83" t="n">
+        <v>5</v>
+      </c>
+      <c r="F83" t="n">
+        <v>20</v>
+      </c>
+      <c r="G83" t="n">
+        <v>20</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.083644658</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.002188726</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.003529474</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.367034374</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.472508819</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.862350773</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0.466056459</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>34</v>
+      </c>
+      <c r="R83" t="n">
+        <v>38</v>
+      </c>
+      <c r="S83" t="n">
+        <v>110</v>
+      </c>
+      <c r="T83" t="n">
+        <v>210</v>
+      </c>
+      <c r="U83" t="n">
+        <v>3744</v>
+      </c>
+      <c r="V83" t="n">
+        <v>1878</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1550</v>
+      </c>
+      <c r="X83" t="n">
+        <v>1550</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>5218</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>5218</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>512</v>
+      </c>
+      <c r="C84" t="n">
+        <v>25</v>
+      </c>
+      <c r="D84" t="n">
+        <v>20</v>
+      </c>
+      <c r="E84" t="n">
+        <v>10</v>
+      </c>
+      <c r="F84" t="n">
+        <v>20</v>
+      </c>
+      <c r="G84" t="n">
+        <v>20</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.082510525</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.004222271</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.007363158</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.367090068</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.480741613</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0.895793465</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0.461370426</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>34</v>
+      </c>
+      <c r="R84" t="n">
+        <v>38</v>
+      </c>
+      <c r="S84" t="n">
+        <v>110</v>
+      </c>
+      <c r="T84" t="n">
+        <v>210</v>
+      </c>
+      <c r="U84" t="n">
+        <v>3744</v>
+      </c>
+      <c r="V84" t="n">
+        <v>1878</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1400</v>
+      </c>
+      <c r="X84" t="n">
+        <v>1400</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>5218</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>5218</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>512</v>
+      </c>
+      <c r="C85" t="n">
+        <v>25</v>
+      </c>
+      <c r="D85" t="n">
+        <v>20</v>
+      </c>
+      <c r="E85" t="n">
+        <v>15</v>
+      </c>
+      <c r="F85" t="n">
+        <v>20</v>
+      </c>
+      <c r="G85" t="n">
+        <v>20</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.083459385</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.006374427</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.011122012</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.365933812</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.483622351</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.905088695</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0.454032747</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>34</v>
+      </c>
+      <c r="R85" t="n">
+        <v>38</v>
+      </c>
+      <c r="S85" t="n">
+        <v>110</v>
+      </c>
+      <c r="T85" t="n">
+        <v>210</v>
+      </c>
+      <c r="U85" t="n">
+        <v>3744</v>
+      </c>
+      <c r="V85" t="n">
+        <v>1878</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1250</v>
+      </c>
+      <c r="X85" t="n">
+        <v>1250</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>5218</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>5218</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>512</v>
+      </c>
+      <c r="C86" t="n">
+        <v>25</v>
+      </c>
+      <c r="D86" t="n">
+        <v>20</v>
+      </c>
+      <c r="E86" t="n">
+        <v>20</v>
+      </c>
+      <c r="F86" t="n">
+        <v>20</v>
+      </c>
+      <c r="G86" t="n">
+        <v>20</v>
+      </c>
+      <c r="H86" t="n">
+        <v>20</v>
+      </c>
+      <c r="I86" t="n">
+        <v>20</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.082422906</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.008468246</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.01503295</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.370367154</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.472732037</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0.577158871</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0.449017135</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>34</v>
+      </c>
+      <c r="R86" t="n">
+        <v>38</v>
+      </c>
+      <c r="S86" t="n">
+        <v>110</v>
+      </c>
+      <c r="T86" t="n">
+        <v>210</v>
+      </c>
+      <c r="U86" t="n">
+        <v>3744</v>
+      </c>
+      <c r="V86" t="n">
+        <v>1878</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1100</v>
+      </c>
+      <c r="X86" t="n">
+        <v>1100</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>5218</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>5218</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>512</v>
+      </c>
+      <c r="C87" t="n">
+        <v>30</v>
+      </c>
+      <c r="D87" t="n">
+        <v>5</v>
+      </c>
+      <c r="E87" t="n">
+        <v>5</v>
+      </c>
+      <c r="F87" t="n">
+        <v>20</v>
+      </c>
+      <c r="G87" t="n">
+        <v>20</v>
+      </c>
+      <c r="H87" t="n">
+        <v>20</v>
+      </c>
+      <c r="I87" t="n">
+        <v>20</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.094749377</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.002088942</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.003438693</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.367901313</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.5417826140000001</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.151356645</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0.111224682</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>34</v>
+      </c>
+      <c r="R87" t="n">
+        <v>38</v>
+      </c>
+      <c r="S87" t="n">
+        <v>110</v>
+      </c>
+      <c r="T87" t="n">
+        <v>210</v>
+      </c>
+      <c r="U87" t="n">
+        <v>4294</v>
+      </c>
+      <c r="V87" t="n">
+        <v>2218</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1890</v>
+      </c>
+      <c r="X87" t="n">
+        <v>1890</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>13728</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>13728</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>512</v>
+      </c>
+      <c r="C88" t="n">
+        <v>30</v>
+      </c>
+      <c r="D88" t="n">
+        <v>5</v>
+      </c>
+      <c r="E88" t="n">
+        <v>10</v>
+      </c>
+      <c r="F88" t="n">
+        <v>20</v>
+      </c>
+      <c r="G88" t="n">
+        <v>20</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.09698831199999999</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.004351796</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.007436531</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.365040778</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.547901191</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0.381500411</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0.230607578</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>34</v>
+      </c>
+      <c r="R88" t="n">
+        <v>38</v>
+      </c>
+      <c r="S88" t="n">
+        <v>110</v>
+      </c>
+      <c r="T88" t="n">
+        <v>210</v>
+      </c>
+      <c r="U88" t="n">
+        <v>4294</v>
+      </c>
+      <c r="V88" t="n">
+        <v>2218</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1740</v>
+      </c>
+      <c r="X88" t="n">
+        <v>1740</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>13728</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>13728</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>512</v>
+      </c>
+      <c r="C89" t="n">
+        <v>30</v>
+      </c>
+      <c r="D89" t="n">
+        <v>5</v>
+      </c>
+      <c r="E89" t="n">
+        <v>15</v>
+      </c>
+      <c r="F89" t="n">
+        <v>20</v>
+      </c>
+      <c r="G89" t="n">
+        <v>20</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.09728719700000001</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.006422391</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.01114101</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.375548975</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.551154645</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0.538093215</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0.366541199</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>34</v>
+      </c>
+      <c r="R89" t="n">
+        <v>38</v>
+      </c>
+      <c r="S89" t="n">
+        <v>110</v>
+      </c>
+      <c r="T89" t="n">
+        <v>210</v>
+      </c>
+      <c r="U89" t="n">
+        <v>4294</v>
+      </c>
+      <c r="V89" t="n">
+        <v>2218</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1590</v>
+      </c>
+      <c r="X89" t="n">
+        <v>1590</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>13728</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>13728</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>512</v>
+      </c>
+      <c r="C90" t="n">
+        <v>30</v>
+      </c>
+      <c r="D90" t="n">
+        <v>5</v>
+      </c>
+      <c r="E90" t="n">
+        <v>20</v>
+      </c>
+      <c r="F90" t="n">
+        <v>20</v>
+      </c>
+      <c r="G90" t="n">
+        <v>20</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.094814334</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.008418336</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.014873593</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.363911909</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.5351707449999999</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0.63204671</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0.464369953</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>34</v>
+      </c>
+      <c r="R90" t="n">
+        <v>38</v>
+      </c>
+      <c r="S90" t="n">
+        <v>110</v>
+      </c>
+      <c r="T90" t="n">
+        <v>210</v>
+      </c>
+      <c r="U90" t="n">
+        <v>4294</v>
+      </c>
+      <c r="V90" t="n">
+        <v>2218</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1440</v>
+      </c>
+      <c r="X90" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>13728</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>13728</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>512</v>
+      </c>
+      <c r="C91" t="n">
+        <v>30</v>
+      </c>
+      <c r="D91" t="n">
+        <v>5</v>
+      </c>
+      <c r="E91" t="n">
+        <v>25</v>
+      </c>
+      <c r="F91" t="n">
+        <v>20</v>
+      </c>
+      <c r="G91" t="n">
+        <v>20</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.096920824</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.010472896</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.018711614</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.363361902</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.55017601</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0.793256168</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0.587950075</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>34</v>
+      </c>
+      <c r="R91" t="n">
+        <v>38</v>
+      </c>
+      <c r="S91" t="n">
+        <v>110</v>
+      </c>
+      <c r="T91" t="n">
+        <v>210</v>
+      </c>
+      <c r="U91" t="n">
+        <v>4294</v>
+      </c>
+      <c r="V91" t="n">
+        <v>2218</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1290</v>
+      </c>
+      <c r="X91" t="n">
+        <v>1290</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>13728</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>13728</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>512</v>
+      </c>
+      <c r="C92" t="n">
+        <v>30</v>
+      </c>
+      <c r="D92" t="n">
+        <v>10</v>
+      </c>
+      <c r="E92" t="n">
+        <v>5</v>
+      </c>
+      <c r="F92" t="n">
+        <v>20</v>
+      </c>
+      <c r="G92" t="n">
+        <v>20</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.095705005</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.002172092</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.003512243</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.38687043</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.55100777</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0.438244369</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0.235118543</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>34</v>
+      </c>
+      <c r="R92" t="n">
+        <v>38</v>
+      </c>
+      <c r="S92" t="n">
+        <v>110</v>
+      </c>
+      <c r="T92" t="n">
+        <v>210</v>
+      </c>
+      <c r="U92" t="n">
+        <v>4294</v>
+      </c>
+      <c r="V92" t="n">
+        <v>2218</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1890</v>
+      </c>
+      <c r="X92" t="n">
+        <v>1890</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>11738</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>11738</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>512</v>
+      </c>
+      <c r="C93" t="n">
+        <v>30</v>
+      </c>
+      <c r="D93" t="n">
+        <v>10</v>
+      </c>
+      <c r="E93" t="n">
+        <v>10</v>
+      </c>
+      <c r="F93" t="n">
+        <v>20</v>
+      </c>
+      <c r="G93" t="n">
+        <v>20</v>
+      </c>
+      <c r="H93" t="n">
+        <v>20</v>
+      </c>
+      <c r="I93" t="n">
+        <v>20</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.095373292</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.004190429</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.007267768</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.382540741</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.543190853</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0.278910318</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0.228304875</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>34</v>
+      </c>
+      <c r="R93" t="n">
+        <v>38</v>
+      </c>
+      <c r="S93" t="n">
+        <v>110</v>
+      </c>
+      <c r="T93" t="n">
+        <v>210</v>
+      </c>
+      <c r="U93" t="n">
+        <v>4294</v>
+      </c>
+      <c r="V93" t="n">
+        <v>2218</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1740</v>
+      </c>
+      <c r="X93" t="n">
+        <v>1740</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>11738</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>11738</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>512</v>
+      </c>
+      <c r="C94" t="n">
+        <v>30</v>
+      </c>
+      <c r="D94" t="n">
+        <v>10</v>
+      </c>
+      <c r="E94" t="n">
+        <v>15</v>
+      </c>
+      <c r="F94" t="n">
+        <v>20</v>
+      </c>
+      <c r="G94" t="n">
+        <v>20</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.09782467</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.006422561</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.01136419</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.38250719</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.561456749</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0.6316218260000001</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0.343908106</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>34</v>
+      </c>
+      <c r="R94" t="n">
+        <v>38</v>
+      </c>
+      <c r="S94" t="n">
+        <v>110</v>
+      </c>
+      <c r="T94" t="n">
+        <v>210</v>
+      </c>
+      <c r="U94" t="n">
+        <v>4294</v>
+      </c>
+      <c r="V94" t="n">
+        <v>2218</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1590</v>
+      </c>
+      <c r="X94" t="n">
+        <v>1590</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>11738</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>11738</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>512</v>
+      </c>
+      <c r="C95" t="n">
+        <v>30</v>
+      </c>
+      <c r="D95" t="n">
+        <v>10</v>
+      </c>
+      <c r="E95" t="n">
+        <v>20</v>
+      </c>
+      <c r="F95" t="n">
+        <v>20</v>
+      </c>
+      <c r="G95" t="n">
+        <v>20</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.096503296</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.008397514999999999</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.014742599</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.388067648</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.548291094</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0.745612623</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0.448379075</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>34</v>
+      </c>
+      <c r="R95" t="n">
+        <v>38</v>
+      </c>
+      <c r="S95" t="n">
+        <v>110</v>
+      </c>
+      <c r="T95" t="n">
+        <v>210</v>
+      </c>
+      <c r="U95" t="n">
+        <v>4294</v>
+      </c>
+      <c r="V95" t="n">
+        <v>2218</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1440</v>
+      </c>
+      <c r="X95" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>11738</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>11738</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>512</v>
+      </c>
+      <c r="C96" t="n">
+        <v>30</v>
+      </c>
+      <c r="D96" t="n">
+        <v>10</v>
+      </c>
+      <c r="E96" t="n">
+        <v>25</v>
+      </c>
+      <c r="F96" t="n">
+        <v>20</v>
+      </c>
+      <c r="G96" t="n">
+        <v>20</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.095437305</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.010485762</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.01862483</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.372217768</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.537021378</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0.872414106</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0.583640723</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>34</v>
+      </c>
+      <c r="R96" t="n">
+        <v>38</v>
+      </c>
+      <c r="S96" t="n">
+        <v>110</v>
+      </c>
+      <c r="T96" t="n">
+        <v>210</v>
+      </c>
+      <c r="U96" t="n">
+        <v>4294</v>
+      </c>
+      <c r="V96" t="n">
+        <v>2218</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1290</v>
+      </c>
+      <c r="X96" t="n">
+        <v>1290</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>11738</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>11738</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>512</v>
+      </c>
+      <c r="C97" t="n">
+        <v>30</v>
+      </c>
+      <c r="D97" t="n">
+        <v>15</v>
+      </c>
+      <c r="E97" t="n">
+        <v>5</v>
+      </c>
+      <c r="F97" t="n">
+        <v>20</v>
+      </c>
+      <c r="G97" t="n">
+        <v>20</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.093954994</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.002069739</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.003431697</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.399118255</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.54693192</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0.63943619</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0.337129981</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>34</v>
+      </c>
+      <c r="R97" t="n">
+        <v>38</v>
+      </c>
+      <c r="S97" t="n">
+        <v>110</v>
+      </c>
+      <c r="T97" t="n">
+        <v>210</v>
+      </c>
+      <c r="U97" t="n">
+        <v>4294</v>
+      </c>
+      <c r="V97" t="n">
+        <v>2218</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1890</v>
+      </c>
+      <c r="X97" t="n">
+        <v>1890</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>9748</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>9748</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>512</v>
+      </c>
+      <c r="C98" t="n">
+        <v>30</v>
+      </c>
+      <c r="D98" t="n">
+        <v>15</v>
+      </c>
+      <c r="E98" t="n">
+        <v>10</v>
+      </c>
+      <c r="F98" t="n">
+        <v>20</v>
+      </c>
+      <c r="G98" t="n">
+        <v>20</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.094469738</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.004173345</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.007316216</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.396632951</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.541305791</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0.668697098</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0.335006393</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>34</v>
+      </c>
+      <c r="R98" t="n">
+        <v>38</v>
+      </c>
+      <c r="S98" t="n">
+        <v>110</v>
+      </c>
+      <c r="T98" t="n">
+        <v>210</v>
+      </c>
+      <c r="U98" t="n">
+        <v>4294</v>
+      </c>
+      <c r="V98" t="n">
+        <v>2218</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1740</v>
+      </c>
+      <c r="X98" t="n">
+        <v>1740</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>9748</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>9748</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>512</v>
+      </c>
+      <c r="C99" t="n">
+        <v>30</v>
+      </c>
+      <c r="D99" t="n">
+        <v>15</v>
+      </c>
+      <c r="E99" t="n">
+        <v>15</v>
+      </c>
+      <c r="F99" t="n">
+        <v>20</v>
+      </c>
+      <c r="G99" t="n">
+        <v>20</v>
+      </c>
+      <c r="H99" t="n">
+        <v>20</v>
+      </c>
+      <c r="I99" t="n">
+        <v>20</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.095818364</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.006284714</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.011294941</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.398457838</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.546767962</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0.420010369</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0.340689616</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>34</v>
+      </c>
+      <c r="R99" t="n">
+        <v>38</v>
+      </c>
+      <c r="S99" t="n">
+        <v>110</v>
+      </c>
+      <c r="T99" t="n">
+        <v>210</v>
+      </c>
+      <c r="U99" t="n">
+        <v>4294</v>
+      </c>
+      <c r="V99" t="n">
+        <v>2218</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1590</v>
+      </c>
+      <c r="X99" t="n">
+        <v>1590</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>9748</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>9748</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>MNT201</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>512</v>
+      </c>
+      <c r="C100" t="n">
+        <v>30</v>
+      </c>
+      <c r="D100" t="n">
+        <v>15</v>
+      </c>
+      <c r="E100" t="n">
+        <v>20</v>
+      </c>
+      <c r="F100" t="n">
+        <v>20</v>
+      </c>
+      <c r="G100" t="n">
+        <v>20</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.095477547</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.008316505</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.0149354</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.400652397</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.552136885</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0.823677121</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0.452262248</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>34</v>
+      </c>
+      <c r="R100" t="n">
+        <v>38</v>
+      </c>
+      <c r="S100" t="n">
+        <v>110</v>
+      </c>
+      <c r="T100" t="n">
+        <v>210</v>
+      </c>
+      <c r="U100" t="n">
+        <v>4294</v>
+      </c>
+      <c r="V100" t="n">
+        <v>2218</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1440</v>
+      </c>
+      <c r="X100" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>9748</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>9748</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
